--- a/LGBM-sampling.xlsx
+++ b/LGBM-sampling.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="326">
   <si>
     <t>name</t>
   </si>
@@ -181,6 +181,21 @@
     <t>AllKNN + ocsvm</t>
   </si>
   <si>
+    <t>SMOTETomek</t>
+  </si>
+  <si>
+    <t>SMOTETomek + lof</t>
+  </si>
+  <si>
+    <t>SMOTETomek + isf</t>
+  </si>
+  <si>
+    <t>SMOTETomek + EllipticEnvelope</t>
+  </si>
+  <si>
+    <t>SMOTETomek + ocsvm</t>
+  </si>
+  <si>
     <t>(284807, 29)</t>
   </si>
   <si>
@@ -566,6 +581,36 @@
   </si>
   <si>
     <t>(199379, 19)</t>
+  </si>
+  <si>
+    <t>(209489, 19)</t>
+  </si>
+  <si>
+    <t>(223894, 19)</t>
+  </si>
+  <si>
+    <t>(238820, 19)</t>
+  </si>
+  <si>
+    <t>(248771, 19)</t>
+  </si>
+  <si>
+    <t>(265356, 19)</t>
+  </si>
+  <si>
+    <t>(209539, 19)</t>
+  </si>
+  <si>
+    <t>(221178, 19)</t>
+  </si>
+  <si>
+    <t>(209550, 19)</t>
+  </si>
+  <si>
+    <t>(221191, 19)</t>
+  </si>
+  <si>
+    <t>(238882, 19)</t>
   </si>
   <si>
     <t>Class    94.98
@@ -1431,7 +1476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L226"/>
+  <dimension ref="A1:L266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1480,7 +1525,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <v>99.83</v>
@@ -1518,7 +1563,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C3">
         <v>99.83</v>
@@ -1556,7 +1601,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C4">
         <v>95</v>
@@ -1594,7 +1639,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C5">
         <v>90</v>
@@ -1632,7 +1677,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>88.89</v>
@@ -1670,7 +1715,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>83.33</v>
@@ -1708,7 +1753,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <v>80</v>
@@ -1746,7 +1791,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C9">
         <v>75</v>
@@ -1784,7 +1829,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>66.67</v>
@@ -1822,7 +1867,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -1860,7 +1905,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C12">
         <v>95</v>
@@ -1898,7 +1943,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C13">
         <v>90</v>
@@ -1936,7 +1981,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C14">
         <v>88.89</v>
@@ -1974,7 +2019,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <v>83.33</v>
@@ -2012,7 +2057,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C16">
         <v>80</v>
@@ -2050,7 +2095,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C17">
         <v>75</v>
@@ -2088,7 +2133,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C18">
         <v>66.67</v>
@@ -2126,7 +2171,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C19">
         <v>50</v>
@@ -2164,13 +2209,13 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D20" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E20">
         <v>0.999543475207192</v>
@@ -2202,13 +2247,13 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D21" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="E21">
         <v>0.9995200636793558</v>
@@ -2240,13 +2285,13 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D22" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="E22">
         <v>0.9995551809711102</v>
@@ -2278,13 +2323,13 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="D23" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="E23">
         <v>0.9994966521515194</v>
@@ -2316,13 +2361,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D24" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="E24">
         <v>0.999543475207192</v>
@@ -2354,13 +2399,13 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="D25" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="E25">
         <v>0.9994966521515194</v>
@@ -2392,13 +2437,13 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D26" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="E26">
         <v>0.9994849463876012</v>
@@ -2430,13 +2475,13 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D27" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="E27">
         <v>0.9988879524277754</v>
@@ -2468,13 +2513,13 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="D28" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="E28">
         <v>0.9994966344746854</v>
@@ -2506,13 +2551,13 @@
         <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D29" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="E29">
         <v>0.9994966344746854</v>
@@ -2544,13 +2589,13 @@
         <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D30" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="E30">
         <v>0.9995317529997073</v>
@@ -2582,13 +2627,13 @@
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D31" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E31">
         <v>0.9995200468247001</v>
@@ -2620,13 +2665,13 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D32" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="E32">
         <v>0.9994849282996781</v>
@@ -2658,13 +2703,13 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="D33" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="E33">
         <v>0.9994849282996781</v>
@@ -2696,13 +2741,13 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="D34" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="E34">
         <v>0.9994732221246707</v>
@@ -2734,13 +2779,13 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D35" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="E35">
         <v>0.999075212174422</v>
@@ -2772,13 +2817,13 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D36" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E36">
         <v>0.9994966521515194</v>
@@ -2810,13 +2855,13 @@
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D37" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="E37">
         <v>0.9994732406236831</v>
@@ -2848,13 +2893,13 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D38" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="E38">
         <v>0.9994966521515194</v>
@@ -2886,13 +2931,13 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="D39" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="E39">
         <v>0.9994732406236831</v>
@@ -2924,13 +2969,13 @@
         <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D40" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="E40">
         <v>0.9994849463876012</v>
@@ -2962,13 +3007,13 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="D41" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="E41">
         <v>0.999461534859765</v>
@@ -3000,13 +3045,13 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D42" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="E42">
         <v>0.999461534859765</v>
@@ -3038,13 +3083,13 @@
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D43" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="E43">
         <v>0.9989815985391206</v>
@@ -3076,13 +3121,13 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D44" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="E44">
         <v>0.9997774341673695</v>
@@ -3114,13 +3159,13 @@
         <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="D45" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="E45">
         <v>0.9997774341673695</v>
@@ -3152,13 +3197,13 @@
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="D46" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E46">
         <v>0.9997657201761784</v>
@@ -3190,13 +3235,13 @@
         <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="D47" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E47">
         <v>0.9997774341673695</v>
@@ -3228,13 +3273,13 @@
         <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D48" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="E48">
         <v>0.9997657201761784</v>
@@ -3266,13 +3311,13 @@
         <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="D49" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="E49">
         <v>0.9997774341673695</v>
@@ -3304,13 +3349,13 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D50" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="E50">
         <v>0.9997774341673695</v>
@@ -3342,13 +3387,13 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D51" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="E51">
         <v>0.9996837222378409</v>
@@ -3380,7 +3425,7 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C52">
         <v>95</v>
@@ -3418,7 +3463,7 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C53">
         <v>90</v>
@@ -3456,7 +3501,7 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C54">
         <v>88.89</v>
@@ -3494,7 +3539,7 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C55">
         <v>83.33</v>
@@ -3532,7 +3577,7 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C56">
         <v>80</v>
@@ -3570,7 +3615,7 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C57">
         <v>75</v>
@@ -3608,7 +3653,7 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C58">
         <v>66.67</v>
@@ -3646,7 +3691,7 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C59">
         <v>50</v>
@@ -3684,13 +3729,13 @@
         <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D60" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E60">
         <v>0.9995785924989464</v>
@@ -3722,13 +3767,13 @@
         <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D61" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="E61">
         <v>0.9995083579154376</v>
@@ -3760,13 +3805,13 @@
         <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D62" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="E62">
         <v>0.9995551809711102</v>
@@ -3798,13 +3843,13 @@
         <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="D63" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="E63">
         <v>0.9995785924989464</v>
@@ -3836,13 +3881,13 @@
         <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D64" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="E64">
         <v>0.9995668867350284</v>
@@ -3874,13 +3919,13 @@
         <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="D65" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="E65">
         <v>0.9995668867350284</v>
@@ -3912,13 +3957,13 @@
         <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D66" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="E66">
         <v>0.9995317694432738</v>
@@ -3950,13 +3995,13 @@
         <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D67" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="E67">
         <v>0.9983143699957859</v>
@@ -3988,13 +4033,13 @@
         <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="D68" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="E68">
         <v>0.9994498097746561</v>
@@ -4026,13 +4071,13 @@
         <v>22</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D69" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="E69">
         <v>0.9994849282996781</v>
@@ -4064,13 +4109,13 @@
         <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D70" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="E70">
         <v>0.9995434591747147</v>
@@ -4102,13 +4147,13 @@
         <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D71" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E71">
         <v>0.9995083406496927</v>
@@ -4140,13 +4185,13 @@
         <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D72" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="E72">
         <v>0.9995317529997073</v>
@@ -4178,13 +4223,13 @@
         <v>22</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="D73" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="E73">
         <v>0.9995200468247001</v>
@@ -4216,13 +4261,13 @@
         <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="D74" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="E74">
         <v>0.9994381035996488</v>
@@ -4254,13 +4299,13 @@
         <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D75" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="E75">
         <v>0.9977758267486099</v>
@@ -4292,13 +4337,13 @@
         <v>23</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D76" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E76">
         <v>0.999461534859765</v>
@@ -4330,13 +4375,13 @@
         <v>23</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D77" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="E77">
         <v>0.9994381233319286</v>
@@ -4368,13 +4413,13 @@
         <v>23</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D78" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="E78">
         <v>0.9994966521515194</v>
@@ -4406,13 +4451,13 @@
         <v>23</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="D79" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="E79">
         <v>0.9994849463876012</v>
@@ -4444,13 +4489,13 @@
         <v>23</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D80" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="E80">
         <v>0.9994732406236831</v>
@@ -4482,13 +4527,13 @@
         <v>23</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C81" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="D81" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="E81">
         <v>0.999461534859765</v>
@@ -4520,13 +4565,13 @@
         <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D82" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="E82">
         <v>0.999391300276256</v>
@@ -4558,13 +4603,13 @@
         <v>23</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D83" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="E83">
         <v>0.9979983143699958</v>
@@ -4596,13 +4641,13 @@
         <v>24</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D84" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="E84">
         <v>0.999859432105707</v>
@@ -4634,13 +4679,13 @@
         <v>24</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="D85" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="E85">
         <v>0.9998008621497516</v>
@@ -4672,13 +4717,13 @@
         <v>24</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="D86" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E86">
         <v>0.9998125761409428</v>
@@ -4710,13 +4755,13 @@
         <v>24</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="D87" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E87">
         <v>0.9997891481585606</v>
@@ -4748,13 +4793,13 @@
         <v>24</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D88" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="E88">
         <v>0.9998242901321338</v>
@@ -4786,13 +4831,13 @@
         <v>24</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="D89" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="E89">
         <v>0.9997891481585606</v>
@@ -4824,13 +4869,13 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D90" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="E90">
         <v>0.9998125761409428</v>
@@ -4862,13 +4907,13 @@
         <v>24</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D91" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="E91">
         <v>0.9994143004404461</v>
@@ -4900,7 +4945,7 @@
         <v>25</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C92">
         <v>94.98999999999999</v>
@@ -4938,7 +4983,7 @@
         <v>25</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C93">
         <v>90</v>
@@ -4976,7 +5021,7 @@
         <v>25</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C94">
         <v>88.90000000000001</v>
@@ -5014,7 +5059,7 @@
         <v>25</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C95">
         <v>83.34</v>
@@ -5052,7 +5097,7 @@
         <v>25</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C96">
         <v>79.98999999999999</v>
@@ -5090,7 +5135,7 @@
         <v>25</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C97">
         <v>74.98999999999999</v>
@@ -5128,7 +5173,7 @@
         <v>25</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C98">
         <v>66.67</v>
@@ -5166,7 +5211,7 @@
         <v>25</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C99">
         <v>50</v>
@@ -5204,13 +5249,13 @@
         <v>26</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C100" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="D100" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="E100">
         <v>0.9994966521515194</v>
@@ -5242,13 +5287,13 @@
         <v>26</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="D101" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="E101">
         <v>0.9994849463876012</v>
@@ -5280,13 +5325,13 @@
         <v>26</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C102" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D102" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="E102">
         <v>0.9995668867350284</v>
@@ -5318,13 +5363,13 @@
         <v>26</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C103" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="D103" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="E103">
         <v>0.999543475207192</v>
@@ -5356,13 +5401,13 @@
         <v>26</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C104" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D104" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="E104">
         <v>0.9995317694432738</v>
@@ -5394,13 +5439,13 @@
         <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C105" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="D105" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="E105">
         <v>0.9995200636793558</v>
@@ -5432,13 +5477,13 @@
         <v>26</v>
       </c>
       <c r="B106" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C106" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="D106" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="E106">
         <v>0.9994147118040924</v>
@@ -5470,13 +5515,13 @@
         <v>26</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C107" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="D107" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E107">
         <v>0.9953176944327387</v>
@@ -5508,13 +5553,13 @@
         <v>27</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C108" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D108" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="E108">
         <v>0.9994381035996488</v>
@@ -5546,13 +5591,13 @@
         <v>27</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C109" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D109" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="E109">
         <v>0.9993795727246122</v>
@@ -5584,13 +5629,13 @@
         <v>27</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C110" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="D110" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E110">
         <v>0.9994732221246707</v>
@@ -5622,13 +5667,13 @@
         <v>27</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C111" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="D111" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="E111">
         <v>0.9994029850746269</v>
@@ -5660,13 +5705,13 @@
         <v>27</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C112" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D112" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="E112">
         <v>0.9993912788996195</v>
@@ -5698,13 +5743,13 @@
         <v>27</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C113" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="D113" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="E113">
         <v>0.9994498097746561</v>
@@ -5736,13 +5781,13 @@
         <v>27</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C114" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="D114" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="E114">
         <v>0.9993093356745684</v>
@@ -5774,13 +5819,13 @@
         <v>27</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C115" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D115" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="E115">
         <v>0.9961603745976002</v>
@@ -5812,13 +5857,13 @@
         <v>28</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C116" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D116" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E116">
         <v>0.9994264175680105</v>
@@ -5850,13 +5895,13 @@
         <v>28</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C117" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="D117" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="E117">
         <v>0.999391300276256</v>
@@ -5888,13 +5933,13 @@
         <v>28</v>
       </c>
       <c r="B118" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C118" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="D118" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E118">
         <v>0.9994030060401742</v>
@@ -5926,13 +5971,13 @@
         <v>28</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C119" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="D119" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="E119">
         <v>0.9994264175680105</v>
@@ -5964,13 +6009,13 @@
         <v>28</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C120" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="D120" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="E120">
         <v>0.9994732406236831</v>
@@ -6002,13 +6047,13 @@
         <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C121" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="D121" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="E121">
         <v>0.9994732406236831</v>
@@ -6040,13 +6085,13 @@
         <v>28</v>
       </c>
       <c r="B122" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C122" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D122" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="E122">
         <v>0.9993561829845016</v>
@@ -6078,13 +6123,13 @@
         <v>28</v>
       </c>
       <c r="B123" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D123" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="E123">
         <v>0.9954581635997565</v>
@@ -6116,13 +6161,13 @@
         <v>29</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="D124" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="E124">
         <v>0.9997657201761784</v>
@@ -6154,13 +6199,13 @@
         <v>29</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="D125" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="E125">
         <v>0.9997540061849873</v>
@@ -6192,13 +6237,13 @@
         <v>29</v>
       </c>
       <c r="B126" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="D126" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="E126">
         <v>0.9997071502202231</v>
@@ -6230,13 +6275,13 @@
         <v>29</v>
       </c>
       <c r="B127" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="D127" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="E127">
         <v>0.9997422921937963</v>
@@ -6268,13 +6313,13 @@
         <v>29</v>
       </c>
       <c r="B128" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D128" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="E128">
         <v>0.9997305782026052</v>
@@ -6306,13 +6351,13 @@
         <v>29</v>
       </c>
       <c r="B129" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="D129" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="E129">
         <v>0.999695436229032</v>
@@ -6344,13 +6389,13 @@
         <v>29</v>
       </c>
       <c r="B130" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D130" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="E130">
         <v>0.9997188642114141</v>
@@ -6382,13 +6427,13 @@
         <v>29</v>
       </c>
       <c r="B131" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D131" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="E131">
         <v>0.9994143004404461</v>
@@ -6420,7 +6465,7 @@
         <v>30</v>
       </c>
       <c r="B132" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C132">
         <v>95</v>
@@ -6458,7 +6503,7 @@
         <v>30</v>
       </c>
       <c r="B133" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C133">
         <v>90</v>
@@ -6496,7 +6541,7 @@
         <v>30</v>
       </c>
       <c r="B134" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C134">
         <v>88.89</v>
@@ -6534,7 +6579,7 @@
         <v>30</v>
       </c>
       <c r="B135" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C135">
         <v>83.33</v>
@@ -6572,7 +6617,7 @@
         <v>30</v>
       </c>
       <c r="B136" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C136">
         <v>80</v>
@@ -6610,7 +6655,7 @@
         <v>30</v>
       </c>
       <c r="B137" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C137">
         <v>75</v>
@@ -6648,7 +6693,7 @@
         <v>30</v>
       </c>
       <c r="B138" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C138">
         <v>66.67</v>
@@ -6686,7 +6731,7 @@
         <v>30</v>
       </c>
       <c r="B139" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C139">
         <v>50</v>
@@ -6724,13 +6769,13 @@
         <v>31</v>
       </c>
       <c r="B140" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="D140" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="E140">
         <v>0.9995317694432738</v>
@@ -6762,13 +6807,13 @@
         <v>31</v>
       </c>
       <c r="B141" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="D141" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="E141">
         <v>0.9995200636793558</v>
@@ -6800,13 +6845,13 @@
         <v>31</v>
       </c>
       <c r="B142" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="D142" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="E142">
         <v>0.9995083579154376</v>
@@ -6838,13 +6883,13 @@
         <v>31</v>
       </c>
       <c r="B143" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D143" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="E143">
         <v>0.9994966521515194</v>
@@ -6876,13 +6921,13 @@
         <v>31</v>
       </c>
       <c r="B144" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="D144" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="E144">
         <v>0.9995200636793558</v>
@@ -6914,13 +6959,13 @@
         <v>31</v>
       </c>
       <c r="B145" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="D145" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="E145">
         <v>0.9994849463876012</v>
@@ -6952,13 +6997,13 @@
         <v>31</v>
       </c>
       <c r="B146" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D146" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="E146">
         <v>0.9994030060401742</v>
@@ -6990,13 +7035,13 @@
         <v>31</v>
       </c>
       <c r="B147" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D147" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="E147">
         <v>0.9505431474458023</v>
@@ -7028,13 +7073,13 @@
         <v>32</v>
       </c>
       <c r="B148" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="D148" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="E148">
         <v>0.9994966344746854</v>
@@ -7066,13 +7111,13 @@
         <v>32</v>
       </c>
       <c r="B149" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="D149" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="E149">
         <v>0.9994966344746854</v>
@@ -7104,13 +7149,13 @@
         <v>32</v>
       </c>
       <c r="B150" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D150" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="E150">
         <v>0.9994849282996781</v>
@@ -7142,13 +7187,13 @@
         <v>32</v>
       </c>
       <c r="B151" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D151" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="E151">
         <v>0.9994732221246707</v>
@@ -7180,13 +7225,13 @@
         <v>32</v>
       </c>
       <c r="B152" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="D152" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="E152">
         <v>0.9994966344746854</v>
@@ -7218,13 +7263,13 @@
         <v>32</v>
       </c>
       <c r="B153" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="D153" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="E153">
         <v>0.9994615159496635</v>
@@ -7256,13 +7301,13 @@
         <v>32</v>
       </c>
       <c r="B154" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D154" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="E154">
         <v>0.9976236464735148</v>
@@ -7294,13 +7339,13 @@
         <v>32</v>
       </c>
       <c r="B155" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="D155" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="E155">
         <v>0.9484460052677788</v>
@@ -7332,13 +7377,13 @@
         <v>33</v>
       </c>
       <c r="B156" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="D156" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="E156">
         <v>0.9995083579154376</v>
@@ -7370,13 +7415,13 @@
         <v>33</v>
       </c>
       <c r="B157" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="D157" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="E157">
         <v>0.9994498290958468</v>
@@ -7408,13 +7453,13 @@
         <v>33</v>
       </c>
       <c r="B158" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="D158" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="E158">
         <v>0.9994147118040924</v>
@@ -7446,13 +7491,13 @@
         <v>33</v>
       </c>
       <c r="B159" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="D159" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="E159">
         <v>0.9994030060401742</v>
@@ -7484,13 +7529,13 @@
         <v>33</v>
       </c>
       <c r="B160" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D160" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="E160">
         <v>0.9994030060401742</v>
@@ -7522,13 +7567,13 @@
         <v>33</v>
       </c>
       <c r="B161" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="D161" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="E161">
         <v>0.9994381233319286</v>
@@ -7560,13 +7605,13 @@
         <v>33</v>
       </c>
       <c r="B162" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="D162" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E162">
         <v>0.9986772486772487</v>
@@ -7598,13 +7643,13 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="D163" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="E163">
         <v>0.9526267734232337</v>
@@ -7636,13 +7681,13 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D164" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="E164">
         <v>0.9997188642114141</v>
@@ -7674,13 +7719,13 @@
         <v>34</v>
       </c>
       <c r="B165" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="D165" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="E165">
         <v>0.9992034485990067</v>
@@ -7712,13 +7757,13 @@
         <v>34</v>
       </c>
       <c r="B166" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="D166" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="E166">
         <v>0.9989340268016118</v>
@@ -7750,13 +7795,13 @@
         <v>34</v>
       </c>
       <c r="B167" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="D167" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="E167">
         <v>0.997317496017243</v>
@@ -7788,13 +7833,13 @@
         <v>34</v>
       </c>
       <c r="B168" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="D168" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="E168">
         <v>0.995080123699747</v>
@@ -7826,13 +7871,13 @@
         <v>34</v>
       </c>
       <c r="B169" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="D169" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="E169">
         <v>0.9705744541280105</v>
@@ -7864,13 +7909,13 @@
         <v>34</v>
       </c>
       <c r="B170" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="D170" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="E170">
         <v>0.9575484959235311</v>
@@ -7902,13 +7947,13 @@
         <v>34</v>
       </c>
       <c r="B171" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="D171" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="E171">
         <v>0.0009371192952862899</v>
@@ -7940,7 +7985,7 @@
         <v>35</v>
       </c>
       <c r="B172" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C172">
         <v>99.83</v>
@@ -7978,13 +8023,13 @@
         <v>36</v>
       </c>
       <c r="B173" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D173" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="E173">
         <v>0.9988762466638573</v>
@@ -8016,13 +8061,13 @@
         <v>37</v>
       </c>
       <c r="B174" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D174" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="E174">
         <v>0.9984899034240562</v>
@@ -8054,13 +8099,13 @@
         <v>38</v>
       </c>
       <c r="B175" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D175" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="E175">
         <v>0.9983846045792949</v>
@@ -8092,13 +8137,13 @@
         <v>39</v>
       </c>
       <c r="B176" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="D176" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="E176">
         <v>0.9990628807047137</v>
@@ -8130,7 +8175,7 @@
         <v>40</v>
       </c>
       <c r="B177" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C177">
         <v>99.81999999999999</v>
@@ -8168,13 +8213,13 @@
         <v>41</v>
       </c>
       <c r="B178" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D178" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="E178">
         <v>0.998396310343213</v>
@@ -8206,13 +8251,13 @@
         <v>42</v>
       </c>
       <c r="B179" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D179" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="E179">
         <v>0.998407960199005</v>
@@ -8244,13 +8289,13 @@
         <v>43</v>
       </c>
       <c r="B180" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D180" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="E180">
         <v>0.998396310343213</v>
@@ -8282,13 +8327,13 @@
         <v>44</v>
       </c>
       <c r="B181" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="D181" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="E181">
         <v>0.9990394527223315</v>
@@ -8320,7 +8365,7 @@
         <v>45</v>
       </c>
       <c r="B182" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C182">
         <v>95</v>
@@ -8358,7 +8403,7 @@
         <v>45</v>
       </c>
       <c r="B183" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C183">
         <v>90</v>
@@ -8396,7 +8441,7 @@
         <v>45</v>
       </c>
       <c r="B184" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C184">
         <v>88.89</v>
@@ -8434,7 +8479,7 @@
         <v>45</v>
       </c>
       <c r="B185" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C185">
         <v>83.33</v>
@@ -8472,7 +8517,7 @@
         <v>45</v>
       </c>
       <c r="B186" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C186">
         <v>80</v>
@@ -8510,7 +8555,7 @@
         <v>45</v>
       </c>
       <c r="B187" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C187">
         <v>75</v>
@@ -8548,7 +8593,7 @@
         <v>45</v>
       </c>
       <c r="B188" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C188">
         <v>66.67</v>
@@ -8586,7 +8631,7 @@
         <v>45</v>
       </c>
       <c r="B189" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C189">
         <v>50</v>
@@ -8624,13 +8669,13 @@
         <v>46</v>
       </c>
       <c r="B190" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C190" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="D190" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="E190">
         <v>0.9933511260944889</v>
@@ -8662,13 +8707,13 @@
         <v>46</v>
       </c>
       <c r="B191" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C191" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="D191" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="E191">
         <v>0.9987123659690031</v>
@@ -8700,13 +8745,13 @@
         <v>46</v>
       </c>
       <c r="B192" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C192" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="D192" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="E192">
         <v>0.9989815985391206</v>
@@ -8738,13 +8783,13 @@
         <v>46</v>
       </c>
       <c r="B193" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C193" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D193" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="E193">
         <v>0.9953645174884113</v>
@@ -8776,13 +8821,13 @@
         <v>46</v>
       </c>
       <c r="B194" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C194" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="D194" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="E194">
         <v>0.995341105960575</v>
@@ -8814,13 +8859,13 @@
         <v>46</v>
       </c>
       <c r="B195" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C195" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="D195" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="E195">
         <v>0.9873343634405581</v>
@@ -8852,13 +8897,13 @@
         <v>46</v>
       </c>
       <c r="B196" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C196" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D196" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="E196">
         <v>0.9803694339092569</v>
@@ -8890,13 +8935,13 @@
         <v>46</v>
       </c>
       <c r="B197" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C197" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D197" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="E197">
         <v>0.6193636746734091</v>
@@ -8928,13 +8973,13 @@
         <v>47</v>
       </c>
       <c r="B198" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C198" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="D198" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="E198">
         <v>0.9846180860403863</v>
@@ -8966,13 +9011,13 @@
         <v>47</v>
       </c>
       <c r="B199" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C199" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="D199" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="E199">
         <v>0.9970032191981271</v>
@@ -9004,13 +9049,13 @@
         <v>47</v>
       </c>
       <c r="B200" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C200" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D200" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="E200">
         <v>0.9984899034240562</v>
@@ -9042,13 +9087,13 @@
         <v>47</v>
       </c>
       <c r="B201" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C201" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D201" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="E201">
         <v>0.9966052092478782</v>
@@ -9080,13 +9125,13 @@
         <v>47</v>
       </c>
       <c r="B202" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C202" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="D202" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="E202">
         <v>0.9968861574480539</v>
@@ -9118,13 +9163,13 @@
         <v>47</v>
       </c>
       <c r="B203" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C203" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="D203" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="E203">
         <v>0.9968276265730173</v>
@@ -9156,13 +9201,13 @@
         <v>47</v>
       </c>
       <c r="B204" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C204" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D204" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="E204">
         <v>0.9721041849575651</v>
@@ -9194,13 +9239,13 @@
         <v>47</v>
       </c>
       <c r="B205" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C205" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="D205" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="E205">
         <v>0.3611706175007316</v>
@@ -9232,13 +9277,13 @@
         <v>48</v>
       </c>
       <c r="B206" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C206" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="D206" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="E206">
         <v>0.9925434283841363</v>
@@ -9270,13 +9315,13 @@
         <v>48</v>
       </c>
       <c r="B207" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C207" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="D207" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="E207">
         <v>0.9972140281874795</v>
@@ -9308,13 +9353,13 @@
         <v>48</v>
       </c>
       <c r="B208" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C208" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="D208" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="E208">
         <v>0.9968394437420987</v>
@@ -9346,13 +9391,13 @@
         <v>48</v>
       </c>
       <c r="B209" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C209" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="D209" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="E209">
         <v>0.9977759048555509</v>
@@ -9384,13 +9429,13 @@
         <v>48</v>
       </c>
       <c r="B210" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C210" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D210" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="E210">
         <v>0.9869363674673409</v>
@@ -9422,13 +9467,13 @@
         <v>48</v>
       </c>
       <c r="B211" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C211" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="D211" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="E211">
         <v>0.9962190382544365</v>
@@ -9460,13 +9505,13 @@
         <v>48</v>
       </c>
       <c r="B212" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C212" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="D212" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E212">
         <v>0.9413775342978883</v>
@@ -9498,13 +9543,13 @@
         <v>48</v>
       </c>
       <c r="B213" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C213" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="D213" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="E213">
         <v>0.4341901952521421</v>
@@ -9536,13 +9581,13 @@
         <v>49</v>
       </c>
       <c r="B214" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C214" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D214" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="E214">
         <v>0.9828858588698342</v>
@@ -9574,13 +9619,13 @@
         <v>49</v>
       </c>
       <c r="B215" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C215" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="D215" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="E215">
         <v>0.9664628432199419</v>
@@ -9612,13 +9657,13 @@
         <v>49</v>
       </c>
       <c r="B216" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C216" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="D216" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="E216">
         <v>0.9651977321713054</v>
@@ -9650,13 +9695,13 @@
         <v>49</v>
       </c>
       <c r="B217" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C217" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="D217" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="E217">
         <v>0.9272092587386375</v>
@@ -9688,13 +9733,13 @@
         <v>49</v>
       </c>
       <c r="B218" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C218" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="D218" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="E218">
         <v>0.9054212351232311</v>
@@ -9726,13 +9771,13 @@
         <v>49</v>
       </c>
       <c r="B219" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C219" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="D219" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="E219">
         <v>0.8278863274294818</v>
@@ -9764,13 +9809,13 @@
         <v>49</v>
       </c>
       <c r="B220" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C220" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="D220" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="E220">
         <v>0.2144480367350764</v>
@@ -9802,13 +9847,13 @@
         <v>49</v>
       </c>
       <c r="B221" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C221" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="D221" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="E221">
         <v>0.0009371192952862899</v>
@@ -9840,7 +9885,7 @@
         <v>50</v>
       </c>
       <c r="B222" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C222">
         <v>99.83</v>
@@ -9878,13 +9923,13 @@
         <v>51</v>
       </c>
       <c r="B223" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C223" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D223" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="E223">
         <v>0.9990401273587114</v>
@@ -9916,13 +9961,13 @@
         <v>52</v>
       </c>
       <c r="B224" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C224" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D224" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="E224">
         <v>0.9989464442493415</v>
@@ -9954,13 +9999,13 @@
         <v>53</v>
       </c>
       <c r="B225" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C225" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D225" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="E225">
         <v>0.998396310343213</v>
@@ -9992,13 +10037,13 @@
         <v>54</v>
       </c>
       <c r="B226" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C226" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="D226" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="E226">
         <v>0.9990628807047137</v>
@@ -10023,6 +10068,1526 @@
       </c>
       <c r="L226">
         <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
+      <c r="A227" t="s">
+        <v>55</v>
+      </c>
+      <c r="B227" t="s">
+        <v>189</v>
+      </c>
+      <c r="C227">
+        <v>95</v>
+      </c>
+      <c r="D227">
+        <v>5</v>
+      </c>
+      <c r="E227">
+        <v>0.9994148145547324</v>
+      </c>
+      <c r="F227">
+        <v>0.8592592592592593</v>
+      </c>
+      <c r="G227">
+        <v>0.7891156462585034</v>
+      </c>
+      <c r="H227">
+        <v>0.822695035460993</v>
+      </c>
+      <c r="I227">
+        <v>85277</v>
+      </c>
+      <c r="J227">
+        <v>19</v>
+      </c>
+      <c r="K227">
+        <v>31</v>
+      </c>
+      <c r="L227">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
+      <c r="A228" t="s">
+        <v>55</v>
+      </c>
+      <c r="B228" t="s">
+        <v>63</v>
+      </c>
+      <c r="C228">
+        <v>90</v>
+      </c>
+      <c r="D228">
+        <v>10</v>
+      </c>
+      <c r="E228">
+        <v>0.9993914071369217</v>
+      </c>
+      <c r="F228">
+        <v>0.8467153284671532</v>
+      </c>
+      <c r="G228">
+        <v>0.7891156462585034</v>
+      </c>
+      <c r="H228">
+        <v>0.8169014084507042</v>
+      </c>
+      <c r="I228">
+        <v>85275</v>
+      </c>
+      <c r="J228">
+        <v>21</v>
+      </c>
+      <c r="K228">
+        <v>31</v>
+      </c>
+      <c r="L228">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
+      <c r="A229" t="s">
+        <v>55</v>
+      </c>
+      <c r="B229" t="s">
+        <v>190</v>
+      </c>
+      <c r="C229">
+        <v>88.89</v>
+      </c>
+      <c r="D229">
+        <v>11.11</v>
+      </c>
+      <c r="E229">
+        <v>0.9994733330992591</v>
+      </c>
+      <c r="F229">
+        <v>0.8984375</v>
+      </c>
+      <c r="G229">
+        <v>0.782312925170068</v>
+      </c>
+      <c r="H229">
+        <v>0.8363636363636363</v>
+      </c>
+      <c r="I229">
+        <v>85283</v>
+      </c>
+      <c r="J229">
+        <v>13</v>
+      </c>
+      <c r="K229">
+        <v>32</v>
+      </c>
+      <c r="L229">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
+      <c r="A230" t="s">
+        <v>55</v>
+      </c>
+      <c r="B230" t="s">
+        <v>191</v>
+      </c>
+      <c r="C230">
+        <v>83.33</v>
+      </c>
+      <c r="D230">
+        <v>16.67</v>
+      </c>
+      <c r="E230">
+        <v>0.9994499256814484</v>
+      </c>
+      <c r="F230">
+        <v>0.890625</v>
+      </c>
+      <c r="G230">
+        <v>0.7755102040816326</v>
+      </c>
+      <c r="H230">
+        <v>0.829090909090909</v>
+      </c>
+      <c r="I230">
+        <v>85282</v>
+      </c>
+      <c r="J230">
+        <v>14</v>
+      </c>
+      <c r="K230">
+        <v>33</v>
+      </c>
+      <c r="L230">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
+      <c r="A231" t="s">
+        <v>55</v>
+      </c>
+      <c r="B231" t="s">
+        <v>192</v>
+      </c>
+      <c r="C231">
+        <v>80</v>
+      </c>
+      <c r="D231">
+        <v>20</v>
+      </c>
+      <c r="E231">
+        <v>0.9994499256814484</v>
+      </c>
+      <c r="F231">
+        <v>0.9098360655737705</v>
+      </c>
+      <c r="G231">
+        <v>0.7551020408163265</v>
+      </c>
+      <c r="H231">
+        <v>0.8252788104089219</v>
+      </c>
+      <c r="I231">
+        <v>85285</v>
+      </c>
+      <c r="J231">
+        <v>11</v>
+      </c>
+      <c r="K231">
+        <v>36</v>
+      </c>
+      <c r="L231">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
+      <c r="A232" t="s">
+        <v>55</v>
+      </c>
+      <c r="B232" t="s">
+        <v>193</v>
+      </c>
+      <c r="C232">
+        <v>75</v>
+      </c>
+      <c r="D232">
+        <v>25</v>
+      </c>
+      <c r="E232">
+        <v>0.9994616293903538</v>
+      </c>
+      <c r="F232">
+        <v>0.904</v>
+      </c>
+      <c r="G232">
+        <v>0.7687074829931972</v>
+      </c>
+      <c r="H232">
+        <v>0.8308823529411764</v>
+      </c>
+      <c r="I232">
+        <v>85284</v>
+      </c>
+      <c r="J232">
+        <v>12</v>
+      </c>
+      <c r="K232">
+        <v>34</v>
+      </c>
+      <c r="L232">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
+      <c r="A233" t="s">
+        <v>55</v>
+      </c>
+      <c r="B233" t="s">
+        <v>68</v>
+      </c>
+      <c r="C233">
+        <v>66.67</v>
+      </c>
+      <c r="D233">
+        <v>33.33</v>
+      </c>
+      <c r="E233">
+        <v>0.9993562960102056</v>
+      </c>
+      <c r="F233">
+        <v>0.8285714285714286</v>
+      </c>
+      <c r="G233">
+        <v>0.7891156462585034</v>
+      </c>
+      <c r="H233">
+        <v>0.8083623693379791</v>
+      </c>
+      <c r="I233">
+        <v>85272</v>
+      </c>
+      <c r="J233">
+        <v>24</v>
+      </c>
+      <c r="K233">
+        <v>31</v>
+      </c>
+      <c r="L233">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
+      <c r="A234" t="s">
+        <v>55</v>
+      </c>
+      <c r="B234" t="s">
+        <v>69</v>
+      </c>
+      <c r="C234">
+        <v>50</v>
+      </c>
+      <c r="D234">
+        <v>50</v>
+      </c>
+      <c r="E234">
+        <v>0.9983146659176293</v>
+      </c>
+      <c r="F234">
+        <v>0.5061224489795918</v>
+      </c>
+      <c r="G234">
+        <v>0.8435374149659864</v>
+      </c>
+      <c r="H234">
+        <v>0.6326530612244898</v>
+      </c>
+      <c r="I234">
+        <v>85175</v>
+      </c>
+      <c r="J234">
+        <v>121</v>
+      </c>
+      <c r="K234">
+        <v>23</v>
+      </c>
+      <c r="L234">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
+      <c r="A235" t="s">
+        <v>56</v>
+      </c>
+      <c r="B235" t="s">
+        <v>194</v>
+      </c>
+      <c r="C235" t="s">
+        <v>199</v>
+      </c>
+      <c r="D235" t="s">
+        <v>263</v>
+      </c>
+      <c r="E235">
+        <v>0.9995785924989464</v>
+      </c>
+      <c r="F235">
+        <v>0.8809523809523809</v>
+      </c>
+      <c r="G235">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="H235">
+        <v>0.8604651162790699</v>
+      </c>
+      <c r="I235">
+        <v>85281</v>
+      </c>
+      <c r="J235">
+        <v>15</v>
+      </c>
+      <c r="K235">
+        <v>21</v>
+      </c>
+      <c r="L235">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12">
+      <c r="A236" t="s">
+        <v>56</v>
+      </c>
+      <c r="B236" t="s">
+        <v>195</v>
+      </c>
+      <c r="C236" t="s">
+        <v>200</v>
+      </c>
+      <c r="D236" t="s">
+        <v>264</v>
+      </c>
+      <c r="E236">
+        <v>0.9995083579154376</v>
+      </c>
+      <c r="F236">
+        <v>0.8629032258064516</v>
+      </c>
+      <c r="G236">
+        <v>0.8106060606060606</v>
+      </c>
+      <c r="H236">
+        <v>0.8359375000000001</v>
+      </c>
+      <c r="I236">
+        <v>85279</v>
+      </c>
+      <c r="J236">
+        <v>17</v>
+      </c>
+      <c r="K236">
+        <v>25</v>
+      </c>
+      <c r="L236">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
+      <c r="A237" t="s">
+        <v>56</v>
+      </c>
+      <c r="B237" t="s">
+        <v>72</v>
+      </c>
+      <c r="C237" t="s">
+        <v>201</v>
+      </c>
+      <c r="D237" t="s">
+        <v>265</v>
+      </c>
+      <c r="E237">
+        <v>0.9995551809711102</v>
+      </c>
+      <c r="F237">
+        <v>0.8983050847457628</v>
+      </c>
+      <c r="G237">
+        <v>0.803030303030303</v>
+      </c>
+      <c r="H237">
+        <v>0.8480000000000001</v>
+      </c>
+      <c r="I237">
+        <v>85284</v>
+      </c>
+      <c r="J237">
+        <v>12</v>
+      </c>
+      <c r="K237">
+        <v>26</v>
+      </c>
+      <c r="L237">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
+      <c r="A238" t="s">
+        <v>56</v>
+      </c>
+      <c r="B238" t="s">
+        <v>73</v>
+      </c>
+      <c r="C238" t="s">
+        <v>202</v>
+      </c>
+      <c r="D238" t="s">
+        <v>266</v>
+      </c>
+      <c r="E238">
+        <v>0.9995785924989464</v>
+      </c>
+      <c r="F238">
+        <v>0.9067796610169492</v>
+      </c>
+      <c r="G238">
+        <v>0.8106060606060606</v>
+      </c>
+      <c r="H238">
+        <v>0.856</v>
+      </c>
+      <c r="I238">
+        <v>85285</v>
+      </c>
+      <c r="J238">
+        <v>11</v>
+      </c>
+      <c r="K238">
+        <v>25</v>
+      </c>
+      <c r="L238">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
+      <c r="A239" t="s">
+        <v>56</v>
+      </c>
+      <c r="B239" t="s">
+        <v>74</v>
+      </c>
+      <c r="C239" t="s">
+        <v>203</v>
+      </c>
+      <c r="D239" t="s">
+        <v>267</v>
+      </c>
+      <c r="E239">
+        <v>0.9995668867350284</v>
+      </c>
+      <c r="F239">
+        <v>0.9203539823008849</v>
+      </c>
+      <c r="G239">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="H239">
+        <v>0.8489795918367348</v>
+      </c>
+      <c r="I239">
+        <v>85287</v>
+      </c>
+      <c r="J239">
+        <v>9</v>
+      </c>
+      <c r="K239">
+        <v>28</v>
+      </c>
+      <c r="L239">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12">
+      <c r="A240" t="s">
+        <v>56</v>
+      </c>
+      <c r="B240" t="s">
+        <v>75</v>
+      </c>
+      <c r="C240" t="s">
+        <v>204</v>
+      </c>
+      <c r="D240" t="s">
+        <v>268</v>
+      </c>
+      <c r="E240">
+        <v>0.9995668867350284</v>
+      </c>
+      <c r="F240">
+        <v>0.9203539823008849</v>
+      </c>
+      <c r="G240">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="H240">
+        <v>0.8489795918367348</v>
+      </c>
+      <c r="I240">
+        <v>85287</v>
+      </c>
+      <c r="J240">
+        <v>9</v>
+      </c>
+      <c r="K240">
+        <v>28</v>
+      </c>
+      <c r="L240">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12">
+      <c r="A241" t="s">
+        <v>56</v>
+      </c>
+      <c r="B241" t="s">
+        <v>76</v>
+      </c>
+      <c r="C241" t="s">
+        <v>205</v>
+      </c>
+      <c r="D241" t="s">
+        <v>269</v>
+      </c>
+      <c r="E241">
+        <v>0.9995317694432738</v>
+      </c>
+      <c r="F241">
+        <v>0.8709677419354839</v>
+      </c>
+      <c r="G241">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="H241">
+        <v>0.84375</v>
+      </c>
+      <c r="I241">
+        <v>85280</v>
+      </c>
+      <c r="J241">
+        <v>16</v>
+      </c>
+      <c r="K241">
+        <v>24</v>
+      </c>
+      <c r="L241">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12">
+      <c r="A242" t="s">
+        <v>56</v>
+      </c>
+      <c r="B242" t="s">
+        <v>77</v>
+      </c>
+      <c r="C242" t="s">
+        <v>206</v>
+      </c>
+      <c r="D242" t="s">
+        <v>270</v>
+      </c>
+      <c r="E242">
+        <v>0.9983143699957859</v>
+      </c>
+      <c r="F242">
+        <v>0.4758064516129032</v>
+      </c>
+      <c r="G242">
+        <v>0.8939393939393939</v>
+      </c>
+      <c r="H242">
+        <v>0.6210526315789474</v>
+      </c>
+      <c r="I242">
+        <v>85166</v>
+      </c>
+      <c r="J242">
+        <v>130</v>
+      </c>
+      <c r="K242">
+        <v>14</v>
+      </c>
+      <c r="L242">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12">
+      <c r="A243" t="s">
+        <v>57</v>
+      </c>
+      <c r="B243" t="s">
+        <v>196</v>
+      </c>
+      <c r="C243" t="s">
+        <v>207</v>
+      </c>
+      <c r="D243" t="s">
+        <v>271</v>
+      </c>
+      <c r="E243">
+        <v>0.9994615159496635</v>
+      </c>
+      <c r="F243">
+        <v>0.8257575757575758</v>
+      </c>
+      <c r="G243">
+        <v>0.8257575757575758</v>
+      </c>
+      <c r="H243">
+        <v>0.8257575757575757</v>
+      </c>
+      <c r="I243">
+        <v>85270</v>
+      </c>
+      <c r="J243">
+        <v>23</v>
+      </c>
+      <c r="K243">
+        <v>23</v>
+      </c>
+      <c r="L243">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12">
+      <c r="A244" t="s">
+        <v>57</v>
+      </c>
+      <c r="B244" t="s">
+        <v>197</v>
+      </c>
+      <c r="C244" t="s">
+        <v>200</v>
+      </c>
+      <c r="D244" t="s">
+        <v>264</v>
+      </c>
+      <c r="E244">
+        <v>0.9994849282996781</v>
+      </c>
+      <c r="F244">
+        <v>0.8492063492063492</v>
+      </c>
+      <c r="G244">
+        <v>0.8106060606060606</v>
+      </c>
+      <c r="H244">
+        <v>0.8294573643410852</v>
+      </c>
+      <c r="I244">
+        <v>85274</v>
+      </c>
+      <c r="J244">
+        <v>19</v>
+      </c>
+      <c r="K244">
+        <v>25</v>
+      </c>
+      <c r="L244">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12">
+      <c r="A245" t="s">
+        <v>57</v>
+      </c>
+      <c r="B245" t="s">
+        <v>80</v>
+      </c>
+      <c r="C245" t="s">
+        <v>201</v>
+      </c>
+      <c r="D245" t="s">
+        <v>265</v>
+      </c>
+      <c r="E245">
+        <v>0.9995434591747147</v>
+      </c>
+      <c r="F245">
+        <v>0.8780487804878049</v>
+      </c>
+      <c r="G245">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="H245">
+        <v>0.8470588235294119</v>
+      </c>
+      <c r="I245">
+        <v>85278</v>
+      </c>
+      <c r="J245">
+        <v>15</v>
+      </c>
+      <c r="K245">
+        <v>24</v>
+      </c>
+      <c r="L245">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12">
+      <c r="A246" t="s">
+        <v>57</v>
+      </c>
+      <c r="B246" t="s">
+        <v>198</v>
+      </c>
+      <c r="C246" t="s">
+        <v>208</v>
+      </c>
+      <c r="D246" t="s">
+        <v>272</v>
+      </c>
+      <c r="E246">
+        <v>0.9994849282996781</v>
+      </c>
+      <c r="F246">
+        <v>0.8548387096774194</v>
+      </c>
+      <c r="G246">
+        <v>0.803030303030303</v>
+      </c>
+      <c r="H246">
+        <v>0.828125</v>
+      </c>
+      <c r="I246">
+        <v>85275</v>
+      </c>
+      <c r="J246">
+        <v>18</v>
+      </c>
+      <c r="K246">
+        <v>26</v>
+      </c>
+      <c r="L246">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12">
+      <c r="A247" t="s">
+        <v>57</v>
+      </c>
+      <c r="B247" t="s">
+        <v>82</v>
+      </c>
+      <c r="C247" t="s">
+        <v>203</v>
+      </c>
+      <c r="D247" t="s">
+        <v>267</v>
+      </c>
+      <c r="E247">
+        <v>0.9995317529997073</v>
+      </c>
+      <c r="F247">
+        <v>0.8770491803278688</v>
+      </c>
+      <c r="G247">
+        <v>0.8106060606060606</v>
+      </c>
+      <c r="H247">
+        <v>0.84251968503937</v>
+      </c>
+      <c r="I247">
+        <v>85278</v>
+      </c>
+      <c r="J247">
+        <v>15</v>
+      </c>
+      <c r="K247">
+        <v>25</v>
+      </c>
+      <c r="L247">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12">
+      <c r="A248" t="s">
+        <v>57</v>
+      </c>
+      <c r="B248" t="s">
+        <v>83</v>
+      </c>
+      <c r="C248" t="s">
+        <v>209</v>
+      </c>
+      <c r="D248" t="s">
+        <v>273</v>
+      </c>
+      <c r="E248">
+        <v>0.9995200468247001</v>
+      </c>
+      <c r="F248">
+        <v>0.8699186991869918</v>
+      </c>
+      <c r="G248">
+        <v>0.8106060606060606</v>
+      </c>
+      <c r="H248">
+        <v>0.8392156862745097</v>
+      </c>
+      <c r="I248">
+        <v>85277</v>
+      </c>
+      <c r="J248">
+        <v>16</v>
+      </c>
+      <c r="K248">
+        <v>25</v>
+      </c>
+      <c r="L248">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12">
+      <c r="A249" t="s">
+        <v>57</v>
+      </c>
+      <c r="B249" t="s">
+        <v>84</v>
+      </c>
+      <c r="C249" t="s">
+        <v>210</v>
+      </c>
+      <c r="D249" t="s">
+        <v>274</v>
+      </c>
+      <c r="E249">
+        <v>0.9994381035996488</v>
+      </c>
+      <c r="F249">
+        <v>0.8088235294117647</v>
+      </c>
+      <c r="G249">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H249">
+        <v>0.8208955223880597</v>
+      </c>
+      <c r="I249">
+        <v>85267</v>
+      </c>
+      <c r="J249">
+        <v>26</v>
+      </c>
+      <c r="K249">
+        <v>22</v>
+      </c>
+      <c r="L249">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12">
+      <c r="A250" t="s">
+        <v>57</v>
+      </c>
+      <c r="B250" t="s">
+        <v>85</v>
+      </c>
+      <c r="C250" t="s">
+        <v>206</v>
+      </c>
+      <c r="D250" t="s">
+        <v>270</v>
+      </c>
+      <c r="E250">
+        <v>0.9977758267486099</v>
+      </c>
+      <c r="F250">
+        <v>0.402027027027027</v>
+      </c>
+      <c r="G250">
+        <v>0.9015151515151515</v>
+      </c>
+      <c r="H250">
+        <v>0.5560747663551402</v>
+      </c>
+      <c r="I250">
+        <v>85116</v>
+      </c>
+      <c r="J250">
+        <v>177</v>
+      </c>
+      <c r="K250">
+        <v>13</v>
+      </c>
+      <c r="L250">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12">
+      <c r="A251" t="s">
+        <v>58</v>
+      </c>
+      <c r="B251" t="s">
+        <v>78</v>
+      </c>
+      <c r="C251" t="s">
+        <v>199</v>
+      </c>
+      <c r="D251" t="s">
+        <v>263</v>
+      </c>
+      <c r="E251">
+        <v>0.999461534859765</v>
+      </c>
+      <c r="F251">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="G251">
+        <v>0.8169014084507042</v>
+      </c>
+      <c r="H251">
+        <v>0.8345323741007195</v>
+      </c>
+      <c r="I251">
+        <v>85266</v>
+      </c>
+      <c r="J251">
+        <v>20</v>
+      </c>
+      <c r="K251">
+        <v>26</v>
+      </c>
+      <c r="L251">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12">
+      <c r="A252" t="s">
+        <v>58</v>
+      </c>
+      <c r="B252" t="s">
+        <v>79</v>
+      </c>
+      <c r="C252" t="s">
+        <v>200</v>
+      </c>
+      <c r="D252" t="s">
+        <v>264</v>
+      </c>
+      <c r="E252">
+        <v>0.9994381233319286</v>
+      </c>
+      <c r="F252">
+        <v>0.8357142857142857</v>
+      </c>
+      <c r="G252">
+        <v>0.823943661971831</v>
+      </c>
+      <c r="H252">
+        <v>0.8297872340425531</v>
+      </c>
+      <c r="I252">
+        <v>85263</v>
+      </c>
+      <c r="J252">
+        <v>23</v>
+      </c>
+      <c r="K252">
+        <v>25</v>
+      </c>
+      <c r="L252">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12">
+      <c r="A253" t="s">
+        <v>58</v>
+      </c>
+      <c r="B253" t="s">
+        <v>80</v>
+      </c>
+      <c r="C253" t="s">
+        <v>201</v>
+      </c>
+      <c r="D253" t="s">
+        <v>265</v>
+      </c>
+      <c r="E253">
+        <v>0.9994966521515194</v>
+      </c>
+      <c r="F253">
+        <v>0.889763779527559</v>
+      </c>
+      <c r="G253">
+        <v>0.795774647887324</v>
+      </c>
+      <c r="H253">
+        <v>0.8401486988847584</v>
+      </c>
+      <c r="I253">
+        <v>85272</v>
+      </c>
+      <c r="J253">
+        <v>14</v>
+      </c>
+      <c r="K253">
+        <v>29</v>
+      </c>
+      <c r="L253">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12">
+      <c r="A254" t="s">
+        <v>58</v>
+      </c>
+      <c r="B254" t="s">
+        <v>81</v>
+      </c>
+      <c r="C254" t="s">
+        <v>202</v>
+      </c>
+      <c r="D254" t="s">
+        <v>266</v>
+      </c>
+      <c r="E254">
+        <v>0.9994849463876012</v>
+      </c>
+      <c r="F254">
+        <v>0.8769230769230769</v>
+      </c>
+      <c r="G254">
+        <v>0.8028169014084507</v>
+      </c>
+      <c r="H254">
+        <v>0.8382352941176471</v>
+      </c>
+      <c r="I254">
+        <v>85270</v>
+      </c>
+      <c r="J254">
+        <v>16</v>
+      </c>
+      <c r="K254">
+        <v>28</v>
+      </c>
+      <c r="L254">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12">
+      <c r="A255" t="s">
+        <v>58</v>
+      </c>
+      <c r="B255" t="s">
+        <v>86</v>
+      </c>
+      <c r="C255" t="s">
+        <v>203</v>
+      </c>
+      <c r="D255" t="s">
+        <v>267</v>
+      </c>
+      <c r="E255">
+        <v>0.9994732406236831</v>
+      </c>
+      <c r="F255">
+        <v>0.8702290076335878</v>
+      </c>
+      <c r="G255">
+        <v>0.8028169014084507</v>
+      </c>
+      <c r="H255">
+        <v>0.8351648351648351</v>
+      </c>
+      <c r="I255">
+        <v>85269</v>
+      </c>
+      <c r="J255">
+        <v>17</v>
+      </c>
+      <c r="K255">
+        <v>28</v>
+      </c>
+      <c r="L255">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12">
+      <c r="A256" t="s">
+        <v>58</v>
+      </c>
+      <c r="B256" t="s">
+        <v>87</v>
+      </c>
+      <c r="C256" t="s">
+        <v>204</v>
+      </c>
+      <c r="D256" t="s">
+        <v>268</v>
+      </c>
+      <c r="E256">
+        <v>0.999461534859765</v>
+      </c>
+      <c r="F256">
+        <v>0.8809523809523809</v>
+      </c>
+      <c r="G256">
+        <v>0.7816901408450704</v>
+      </c>
+      <c r="H256">
+        <v>0.8283582089552238</v>
+      </c>
+      <c r="I256">
+        <v>85271</v>
+      </c>
+      <c r="J256">
+        <v>15</v>
+      </c>
+      <c r="K256">
+        <v>31</v>
+      </c>
+      <c r="L256">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12">
+      <c r="A257" t="s">
+        <v>58</v>
+      </c>
+      <c r="B257" t="s">
+        <v>88</v>
+      </c>
+      <c r="C257" t="s">
+        <v>205</v>
+      </c>
+      <c r="D257" t="s">
+        <v>269</v>
+      </c>
+      <c r="E257">
+        <v>0.999391300276256</v>
+      </c>
+      <c r="F257">
+        <v>0.835820895522388</v>
+      </c>
+      <c r="G257">
+        <v>0.7887323943661971</v>
+      </c>
+      <c r="H257">
+        <v>0.8115942028985507</v>
+      </c>
+      <c r="I257">
+        <v>85264</v>
+      </c>
+      <c r="J257">
+        <v>22</v>
+      </c>
+      <c r="K257">
+        <v>30</v>
+      </c>
+      <c r="L257">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12">
+      <c r="A258" t="s">
+        <v>58</v>
+      </c>
+      <c r="B258" t="s">
+        <v>89</v>
+      </c>
+      <c r="C258" t="s">
+        <v>206</v>
+      </c>
+      <c r="D258" t="s">
+        <v>270</v>
+      </c>
+      <c r="E258">
+        <v>0.9979983143699958</v>
+      </c>
+      <c r="F258">
+        <v>0.4480286738351255</v>
+      </c>
+      <c r="G258">
+        <v>0.8802816901408451</v>
+      </c>
+      <c r="H258">
+        <v>0.5938242280285035</v>
+      </c>
+      <c r="I258">
+        <v>85132</v>
+      </c>
+      <c r="J258">
+        <v>154</v>
+      </c>
+      <c r="K258">
+        <v>17</v>
+      </c>
+      <c r="L258">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12">
+      <c r="A259" t="s">
+        <v>59</v>
+      </c>
+      <c r="B259" t="s">
+        <v>90</v>
+      </c>
+      <c r="C259" t="s">
+        <v>211</v>
+      </c>
+      <c r="D259" t="s">
+        <v>275</v>
+      </c>
+      <c r="E259">
+        <v>0.999859432105707</v>
+      </c>
+      <c r="F259">
+        <v>0.9146341463414634</v>
+      </c>
+      <c r="G259">
+        <v>0.9375</v>
+      </c>
+      <c r="H259">
+        <v>0.925925925925926</v>
+      </c>
+      <c r="I259">
+        <v>85281</v>
+      </c>
+      <c r="J259">
+        <v>7</v>
+      </c>
+      <c r="K259">
+        <v>5</v>
+      </c>
+      <c r="L259">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12">
+      <c r="A260" t="s">
+        <v>59</v>
+      </c>
+      <c r="B260" t="s">
+        <v>91</v>
+      </c>
+      <c r="C260" t="s">
+        <v>212</v>
+      </c>
+      <c r="D260" t="s">
+        <v>276</v>
+      </c>
+      <c r="E260">
+        <v>0.9998008621497516</v>
+      </c>
+      <c r="F260">
+        <v>0.8795180722891566</v>
+      </c>
+      <c r="G260">
+        <v>0.9125</v>
+      </c>
+      <c r="H260">
+        <v>0.8957055214723926</v>
+      </c>
+      <c r="I260">
+        <v>85278</v>
+      </c>
+      <c r="J260">
+        <v>10</v>
+      </c>
+      <c r="K260">
+        <v>7</v>
+      </c>
+      <c r="L260">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12">
+      <c r="A261" t="s">
+        <v>59</v>
+      </c>
+      <c r="B261" t="s">
+        <v>92</v>
+      </c>
+      <c r="C261" t="s">
+        <v>213</v>
+      </c>
+      <c r="D261" t="s">
+        <v>277</v>
+      </c>
+      <c r="E261">
+        <v>0.9998125761409428</v>
+      </c>
+      <c r="F261">
+        <v>0.8902439024390244</v>
+      </c>
+      <c r="G261">
+        <v>0.9125</v>
+      </c>
+      <c r="H261">
+        <v>0.9012345679012346</v>
+      </c>
+      <c r="I261">
+        <v>85279</v>
+      </c>
+      <c r="J261">
+        <v>9</v>
+      </c>
+      <c r="K261">
+        <v>7</v>
+      </c>
+      <c r="L261">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12">
+      <c r="A262" t="s">
+        <v>59</v>
+      </c>
+      <c r="B262" t="s">
+        <v>93</v>
+      </c>
+      <c r="C262" t="s">
+        <v>214</v>
+      </c>
+      <c r="D262" t="s">
+        <v>278</v>
+      </c>
+      <c r="E262">
+        <v>0.9997891481585606</v>
+      </c>
+      <c r="F262">
+        <v>0.8690476190476191</v>
+      </c>
+      <c r="G262">
+        <v>0.9125</v>
+      </c>
+      <c r="H262">
+        <v>0.8902439024390244</v>
+      </c>
+      <c r="I262">
+        <v>85277</v>
+      </c>
+      <c r="J262">
+        <v>11</v>
+      </c>
+      <c r="K262">
+        <v>7</v>
+      </c>
+      <c r="L262">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12">
+      <c r="A263" t="s">
+        <v>59</v>
+      </c>
+      <c r="B263" t="s">
+        <v>94</v>
+      </c>
+      <c r="C263" t="s">
+        <v>215</v>
+      </c>
+      <c r="D263" t="s">
+        <v>279</v>
+      </c>
+      <c r="E263">
+        <v>0.9998242901321338</v>
+      </c>
+      <c r="F263">
+        <v>0.9012345679012346</v>
+      </c>
+      <c r="G263">
+        <v>0.9125</v>
+      </c>
+      <c r="H263">
+        <v>0.9068322981366459</v>
+      </c>
+      <c r="I263">
+        <v>85280</v>
+      </c>
+      <c r="J263">
+        <v>8</v>
+      </c>
+      <c r="K263">
+        <v>7</v>
+      </c>
+      <c r="L263">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12">
+      <c r="A264" t="s">
+        <v>59</v>
+      </c>
+      <c r="B264" t="s">
+        <v>95</v>
+      </c>
+      <c r="C264" t="s">
+        <v>216</v>
+      </c>
+      <c r="D264" t="s">
+        <v>280</v>
+      </c>
+      <c r="E264">
+        <v>0.9997891481585606</v>
+      </c>
+      <c r="F264">
+        <v>0.8875</v>
+      </c>
+      <c r="G264">
+        <v>0.8875</v>
+      </c>
+      <c r="H264">
+        <v>0.8875</v>
+      </c>
+      <c r="I264">
+        <v>85279</v>
+      </c>
+      <c r="J264">
+        <v>9</v>
+      </c>
+      <c r="K264">
+        <v>9</v>
+      </c>
+      <c r="L264">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12">
+      <c r="A265" t="s">
+        <v>59</v>
+      </c>
+      <c r="B265" t="s">
+        <v>96</v>
+      </c>
+      <c r="C265" t="s">
+        <v>217</v>
+      </c>
+      <c r="D265" t="s">
+        <v>281</v>
+      </c>
+      <c r="E265">
+        <v>0.9998125761409428</v>
+      </c>
+      <c r="F265">
+        <v>0.8902439024390244</v>
+      </c>
+      <c r="G265">
+        <v>0.9125</v>
+      </c>
+      <c r="H265">
+        <v>0.9012345679012346</v>
+      </c>
+      <c r="I265">
+        <v>85279</v>
+      </c>
+      <c r="J265">
+        <v>9</v>
+      </c>
+      <c r="K265">
+        <v>7</v>
+      </c>
+      <c r="L265">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12">
+      <c r="A266" t="s">
+        <v>59</v>
+      </c>
+      <c r="B266" t="s">
+        <v>97</v>
+      </c>
+      <c r="C266" t="s">
+        <v>218</v>
+      </c>
+      <c r="D266" t="s">
+        <v>282</v>
+      </c>
+      <c r="E266">
+        <v>0.9994143004404461</v>
+      </c>
+      <c r="F266">
+        <v>0.6229508196721312</v>
+      </c>
+      <c r="G266">
+        <v>0.95</v>
+      </c>
+      <c r="H266">
+        <v>0.7524752475247525</v>
+      </c>
+      <c r="I266">
+        <v>85242</v>
+      </c>
+      <c r="J266">
+        <v>46</v>
+      </c>
+      <c r="K266">
+        <v>4</v>
+      </c>
+      <c r="L266">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
